--- a/output/3_Regression/h19_test/h20table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h20table_rmse.xlsx
@@ -452,7 +452,7 @@
         <v>20.00684072973876</v>
       </c>
       <c r="F3">
-        <v>3.476727973232193</v>
+        <v>3.476727973232202</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>22.42726890249967</v>
       </c>
       <c r="F4">
-        <v>4.479693783260696</v>
+        <v>4.479693783260704</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>9.905304296570977</v>
       </c>
       <c r="F5">
-        <v>4.647442016806143</v>
+        <v>4.647442016806144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -512,7 +512,7 @@
         <v>4.585279634766161</v>
       </c>
       <c r="F6">
-        <v>2.910668453772118</v>
+        <v>2.910668453772119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -632,7 +632,7 @@
         <v>0.8350277737685492</v>
       </c>
       <c r="F12">
-        <v>0.8035507364188168</v>
+        <v>0.8035507364188167</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>0.7178325657007735</v>
       </c>
       <c r="F13">
-        <v>0.6864022302352225</v>
+        <v>0.6864022302352223</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h20table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h20table_rmse.xlsx
@@ -512,7 +512,7 @@
         <v>4.585279634766161</v>
       </c>
       <c r="F6">
-        <v>2.910668453772119</v>
+        <v>2.91066845377212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -612,7 +612,7 @@
         <v>0.9854041407894963</v>
       </c>
       <c r="F11">
-        <v>0.9823084313546794</v>
+        <v>0.9823084313546792</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,7 +632,7 @@
         <v>0.8350277737685492</v>
       </c>
       <c r="F12">
-        <v>0.8035507364188168</v>
+        <v>0.8035507364188167</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>0.7178325657007735</v>
       </c>
       <c r="F13">
-        <v>0.6864022302352225</v>
+        <v>0.6864022302352223</v>
       </c>
     </row>
   </sheetData>
